--- a/Software/RDDT.xlsx
+++ b/Software/RDDT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECED07B8-4F74-B742-AF34-93C815204E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948CC177-102C-5B44-8CFC-815464FBE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1944,13 +1944,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>124.92959999999999</v>
+    <v>139.04</v>
     <v>37.35</v>
-    <v>2.78</v>
-    <v>-1.5</v>
-    <v>-1.2238000000000001E-2</v>
-    <v>0.16</v>
-    <v>1.3209999999999999E-3</v>
+    <v>2.0920000000000001</v>
+    <v>-0.18</v>
+    <v>-1.3630000000000001E-3</v>
+    <v>-0.18</v>
+    <v>-1.3650000000000001E-3</v>
     <v>USD</v>
     <v>Reddit, Inc. operates a social platform, Reddit. The Company operates mobile applications and a Website that allows users to form communities and create and share content. Reddit is focused on bringing community, belonging, and empowerment to everyone in the world. Reddit is a global, digital city where anyone can join a community to learn from one another, engage in authentic conversations, explore passions, research new hobbies, exchange goods and services, create new communities and experiences, share a few laughs, and find belonging. Reddit has thousands of communities, endless conversation, and authentic human connections. It offers real-time access to evolving and dynamic topics, such as sports, movies, news, fashion, and the latest trends. It offers Memorable AI, that uses generative artificial intelligence to help marketers create better advertisements. Memorable AI technology help advertisers to find the effective text, images and videos to use in their sponsored messages.</v>
     <v>2013</v>
@@ -1958,23 +1958,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>303 2Nd Street, South Tower, 5Th Floor, SAN FRANCISCO, CA, 94104 US</v>
-    <v>124.92959999999999</v>
+    <v>133.99</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.9334303125</v>
-    <v>117.16</v>
-    <v>21257264781</v>
+    <v>45611.041639733594</v>
+    <v>129.72</v>
+    <v>23155266204</v>
     <v>REDDIT INC.</v>
     <v>REDDIT INC.</v>
-    <v>124.15</v>
-    <v>122.57</v>
-    <v>121.07</v>
-    <v>121.24</v>
+    <v>132.06</v>
+    <v>132.06</v>
+    <v>131.88</v>
+    <v>131.69999999999999</v>
     <v>175578300</v>
     <v>RDDT</v>
     <v>REDDIT INC. (XNYS:RDDT)</v>
-    <v>6506131</v>
-    <v>7235895</v>
+    <v>2667713</v>
+    <v>7569273</v>
     <v>2011</v>
   </rv>
   <rv s="1">
@@ -2128,9 +2128,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2887,14 +2887,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>121.07</v>
+        <v>131.88</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="43">
         <f ca="1">A5/F10</f>
-        <v>17.818327561609387</v>
+        <v>19.409275946353731</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2934,14 +2934,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.2238000000000001E-2</v>
+        <v>-1.3630000000000001E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="43">
         <f ca="1">A5/F15</f>
-        <v>87.478455888888888</v>
+        <v>95.28916133333334</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2982,14 +2982,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>21257264781</v>
+        <v>23155266204</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="44">
         <f ca="1">F18/A5</f>
-        <v>6.4448555075840358E-3</v>
+        <v>5.9165806513739707E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3031,7 +3031,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.78</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="K6" s="50">
         <f ca="1">K5/A3-1</f>
-        <v>-0.57692258421914</v>
+        <v>-0.6116015868320539</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
